--- a/data/pca/factorExposure/factorExposure_2017-11-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-11-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02301397720582736</v>
+        <v>-0.01515670606431947</v>
       </c>
       <c r="C2">
-        <v>0.0007305814391484565</v>
+        <v>0.03751373658368186</v>
       </c>
       <c r="D2">
-        <v>0.008529153124039233</v>
+        <v>0.02821331249991078</v>
       </c>
       <c r="E2">
-        <v>-0.01351540629677236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.02893686106583394</v>
+      </c>
+      <c r="F2">
+        <v>0.03263946101479112</v>
+      </c>
+      <c r="G2">
+        <v>-0.01470063884175276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01155533839143686</v>
+        <v>-0.05426802900228377</v>
       </c>
       <c r="C3">
-        <v>0.0496128036390782</v>
+        <v>0.07801392147344337</v>
       </c>
       <c r="D3">
-        <v>-0.01916953132432738</v>
+        <v>0.01416860320824504</v>
       </c>
       <c r="E3">
-        <v>0.03283497503286822</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.07852874459489591</v>
+      </c>
+      <c r="F3">
+        <v>0.0621354250148797</v>
+      </c>
+      <c r="G3">
+        <v>-0.07397984970973054</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02198723521152637</v>
+        <v>-0.05611640826866629</v>
       </c>
       <c r="C4">
-        <v>0.03275533588694664</v>
+        <v>0.06373455765771262</v>
       </c>
       <c r="D4">
-        <v>0.04410508625713403</v>
+        <v>0.02210818744686428</v>
       </c>
       <c r="E4">
-        <v>-0.01822482469025352</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.0002042420982596341</v>
+      </c>
+      <c r="F4">
+        <v>0.01570505925718367</v>
+      </c>
+      <c r="G4">
+        <v>-0.04117626490001155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01485368510397172</v>
+        <v>-0.03240842136826356</v>
       </c>
       <c r="C6">
-        <v>0.05233673500263972</v>
+        <v>0.05386943908261354</v>
       </c>
       <c r="D6">
-        <v>0.0436513977796676</v>
+        <v>0.01626131615115872</v>
       </c>
       <c r="E6">
-        <v>-0.03439148811018837</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.00692765405474154</v>
+      </c>
+      <c r="F6">
+        <v>0.01971878436226634</v>
+      </c>
+      <c r="G6">
+        <v>-0.0245386335535708</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.0106381558309884</v>
+        <v>-0.0199163850018952</v>
       </c>
       <c r="C7">
-        <v>0.02223584264429767</v>
+        <v>0.03706481973060028</v>
       </c>
       <c r="D7">
-        <v>0.05006304926089741</v>
+        <v>0.012458725868334</v>
       </c>
       <c r="E7">
-        <v>0.04909832226053926</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.01258289411637599</v>
+      </c>
+      <c r="F7">
+        <v>0.01092695402121619</v>
+      </c>
+      <c r="G7">
+        <v>-0.07646740175809162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0005477417925656957</v>
+        <v>0.002456477985960138</v>
       </c>
       <c r="C8">
-        <v>-0.01677027751048079</v>
+        <v>0.01443550996751045</v>
       </c>
       <c r="D8">
-        <v>0.02289975418699607</v>
+        <v>0.003902377650443848</v>
       </c>
       <c r="E8">
-        <v>-0.009493563542046257</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.01812611536849492</v>
+      </c>
+      <c r="F8">
+        <v>0.02195758558603655</v>
+      </c>
+      <c r="G8">
+        <v>-0.0270113523851907</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01407747971875915</v>
+        <v>-0.0290083010451889</v>
       </c>
       <c r="C9">
-        <v>0.02428614663501109</v>
+        <v>0.04283153436031996</v>
       </c>
       <c r="D9">
-        <v>0.02427852834178566</v>
+        <v>0.01537149493223268</v>
       </c>
       <c r="E9">
-        <v>-0.00881582307252771</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.005003623229671812</v>
+      </c>
+      <c r="F9">
+        <v>0.0184447029131879</v>
+      </c>
+      <c r="G9">
+        <v>-0.03300751162419769</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.006996997443765905</v>
+        <v>-0.08650687525893018</v>
       </c>
       <c r="C10">
-        <v>0.08428249284824442</v>
+        <v>-0.1864749095448848</v>
       </c>
       <c r="D10">
-        <v>-0.1170790053176419</v>
+        <v>-0.01889141012413792</v>
       </c>
       <c r="E10">
-        <v>0.1062014424308008</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01956280525771536</v>
+      </c>
+      <c r="F10">
+        <v>-0.01480357367258883</v>
+      </c>
+      <c r="G10">
+        <v>-0.03828282465320146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0001710681552174436</v>
+        <v>-0.03654507886880649</v>
       </c>
       <c r="C11">
-        <v>0.01758953913889591</v>
+        <v>0.05218294494749114</v>
       </c>
       <c r="D11">
-        <v>0.02000203112225422</v>
+        <v>0.001276031723052383</v>
       </c>
       <c r="E11">
-        <v>-0.02768776501646743</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.001395756125327069</v>
+      </c>
+      <c r="F11">
+        <v>0.02461768410933899</v>
+      </c>
+      <c r="G11">
+        <v>-0.01443813434507496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005098622972151555</v>
+        <v>-0.03375287591379548</v>
       </c>
       <c r="C12">
-        <v>0.02739367604124314</v>
+        <v>0.04437884387192812</v>
       </c>
       <c r="D12">
-        <v>0.02616508640241084</v>
+        <v>0.005433284653512644</v>
       </c>
       <c r="E12">
-        <v>-0.02409860929159848</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.008250510696863693</v>
+      </c>
+      <c r="F12">
+        <v>0.00701229878082547</v>
+      </c>
+      <c r="G12">
+        <v>-0.01861077573623634</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.020857951464782</v>
+        <v>-0.01199760891747717</v>
       </c>
       <c r="C13">
-        <v>0.008959463151504582</v>
+        <v>0.03358851180606693</v>
       </c>
       <c r="D13">
-        <v>0.003748166218249976</v>
+        <v>0.02469524049256441</v>
       </c>
       <c r="E13">
-        <v>-0.007341384464343813</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.0243128142682824</v>
+      </c>
+      <c r="F13">
+        <v>0.02389021184807115</v>
+      </c>
+      <c r="G13">
+        <v>-0.03005715892084763</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006745682262350735</v>
+        <v>-0.006725020520004492</v>
       </c>
       <c r="C14">
-        <v>0.01222045797608161</v>
+        <v>0.02549240335562702</v>
       </c>
       <c r="D14">
-        <v>0.01426665608677545</v>
+        <v>0.008600635456351174</v>
       </c>
       <c r="E14">
-        <v>0.006922844673318407</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.00390112321285344</v>
+      </c>
+      <c r="F14">
+        <v>0.003794557719670093</v>
+      </c>
+      <c r="G14">
+        <v>-0.03768184485339462</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0001479960390609427</v>
+        <v>-0.03257144493402817</v>
       </c>
       <c r="C16">
-        <v>0.02348122129280032</v>
+        <v>0.04249489286515206</v>
       </c>
       <c r="D16">
-        <v>0.02860676152917327</v>
+        <v>0.0009220779635469794</v>
       </c>
       <c r="E16">
-        <v>-0.02654253695334212</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.0007880004477785786</v>
+      </c>
+      <c r="F16">
+        <v>0.01075229459181189</v>
+      </c>
+      <c r="G16">
+        <v>-0.01793453402581318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01148379879341871</v>
+        <v>-0.03069498089496428</v>
       </c>
       <c r="C19">
-        <v>0.01785009936132884</v>
+        <v>0.05496341680301978</v>
       </c>
       <c r="D19">
-        <v>0.02452480239715088</v>
+        <v>0.01530121013145613</v>
       </c>
       <c r="E19">
-        <v>-0.02066582820986293</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.04015539150319491</v>
+      </c>
+      <c r="F19">
+        <v>0.03908272269564047</v>
+      </c>
+      <c r="G19">
+        <v>-0.03622304663687229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.009641543029824447</v>
+        <v>-0.01149019809162563</v>
       </c>
       <c r="C20">
-        <v>0.002175980103681883</v>
+        <v>0.03460006987187754</v>
       </c>
       <c r="D20">
-        <v>0.003892504231357459</v>
+        <v>0.01305796262816916</v>
       </c>
       <c r="E20">
-        <v>0.002427634044352884</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02218821154413078</v>
+      </c>
+      <c r="F20">
+        <v>0.006563351597989886</v>
+      </c>
+      <c r="G20">
+        <v>-0.02995920600768542</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01336932288530941</v>
+        <v>-0.01244781905902824</v>
       </c>
       <c r="C21">
-        <v>0.02966412492395052</v>
+        <v>0.03307999679594186</v>
       </c>
       <c r="D21">
-        <v>0.02016866711772937</v>
+        <v>0.01606982749631223</v>
       </c>
       <c r="E21">
-        <v>0.009362852345272961</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.02973208419795283</v>
+      </c>
+      <c r="F21">
+        <v>0.02094050973958565</v>
+      </c>
+      <c r="G21">
+        <v>-0.05241030702993255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004405066503186982</v>
+        <v>-0.02740059156311345</v>
       </c>
       <c r="C24">
-        <v>0.02101510397550443</v>
+        <v>0.04558806686843998</v>
       </c>
       <c r="D24">
-        <v>0.02435493908612207</v>
+        <v>0.006270077686980996</v>
       </c>
       <c r="E24">
-        <v>-0.02401187742488604</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.00513830618246352</v>
+      </c>
+      <c r="F24">
+        <v>0.02026881791733271</v>
+      </c>
+      <c r="G24">
+        <v>-0.0174806910481954</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01060865364324433</v>
+        <v>-0.04449724283881913</v>
       </c>
       <c r="C25">
-        <v>0.03368306828000622</v>
+        <v>0.05234993556165319</v>
       </c>
       <c r="D25">
-        <v>0.02320635658375888</v>
+        <v>0.01008348401937779</v>
       </c>
       <c r="E25">
-        <v>-0.02492777414662257</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.0125261284082996</v>
+      </c>
+      <c r="F25">
+        <v>0.01469220785274307</v>
+      </c>
+      <c r="G25">
+        <v>-0.0233840310436952</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02260399271121546</v>
+        <v>-0.008314090456875516</v>
       </c>
       <c r="C26">
-        <v>0.0006074974927412494</v>
+        <v>0.008256848865149137</v>
       </c>
       <c r="D26">
-        <v>0.002213802158054377</v>
+        <v>0.02365867099314294</v>
       </c>
       <c r="E26">
-        <v>0.009797837399493763</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.008635437920479782</v>
+      </c>
+      <c r="F26">
+        <v>0.006367285494369601</v>
+      </c>
+      <c r="G26">
+        <v>-0.0266124959241922</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.02258516376159373</v>
+        <v>-0.1090488519145703</v>
       </c>
       <c r="C28">
-        <v>0.1251572145210313</v>
+        <v>-0.2294235855491455</v>
       </c>
       <c r="D28">
-        <v>-0.1807341747077262</v>
+        <v>-0.01025698152486373</v>
       </c>
       <c r="E28">
-        <v>0.1673830608849262</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.008185084393033608</v>
+      </c>
+      <c r="F28">
+        <v>-0.00754303994490399</v>
+      </c>
+      <c r="G28">
+        <v>-0.05430787874031222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.006630575779068423</v>
+        <v>-0.01186909248269391</v>
       </c>
       <c r="C29">
-        <v>0.01424571862705537</v>
+        <v>0.01891777109891508</v>
       </c>
       <c r="D29">
-        <v>0.01034246204471777</v>
+        <v>0.007337976215181898</v>
       </c>
       <c r="E29">
-        <v>0.005311069677303061</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.00142627648073312</v>
+      </c>
+      <c r="F29">
+        <v>-0.004967322418036249</v>
+      </c>
+      <c r="G29">
+        <v>-0.03208215170478891</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02364004092526526</v>
+        <v>-0.04121552119051116</v>
       </c>
       <c r="C30">
-        <v>0.0326284530017211</v>
+        <v>0.06966503844237776</v>
       </c>
       <c r="D30">
-        <v>0.005763714804580871</v>
+        <v>0.02678332905123548</v>
       </c>
       <c r="E30">
-        <v>-0.07964152374971965</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.02131302519448538</v>
+      </c>
+      <c r="F30">
+        <v>0.04604005870573</v>
+      </c>
+      <c r="G30">
+        <v>0.004054289240386677</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.0058274399081768</v>
+        <v>-0.04411482941581891</v>
       </c>
       <c r="C31">
-        <v>0.04841146686394762</v>
+        <v>0.03048308572411499</v>
       </c>
       <c r="D31">
-        <v>0.02178016478397019</v>
+        <v>0.003100850504013278</v>
       </c>
       <c r="E31">
-        <v>-0.004926701266935453</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.009773894470361137</v>
+      </c>
+      <c r="F31">
+        <v>-0.03673986688678461</v>
+      </c>
+      <c r="G31">
+        <v>-0.02870863888018432</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.007905818963255779</v>
+        <v>-0.004301425915203263</v>
       </c>
       <c r="C32">
-        <v>-0.002641435730483338</v>
+        <v>0.03367228091635339</v>
       </c>
       <c r="D32">
-        <v>0.03299167130277775</v>
+        <v>-0.004597079254406753</v>
       </c>
       <c r="E32">
-        <v>0.005762606907734521</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.0150455630438525</v>
+      </c>
+      <c r="F32">
+        <v>0.07644970665153013</v>
+      </c>
+      <c r="G32">
+        <v>-0.0527961017925962</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01140311875828254</v>
+        <v>-0.03081915153823288</v>
       </c>
       <c r="C33">
-        <v>0.02707040962264275</v>
+        <v>0.04949937240344737</v>
       </c>
       <c r="D33">
-        <v>0.002449693839708618</v>
+        <v>0.01384734364803022</v>
       </c>
       <c r="E33">
-        <v>-0.03190152158092616</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.02025339281995676</v>
+      </c>
+      <c r="F33">
+        <v>0.02629312161876702</v>
+      </c>
+      <c r="G33">
+        <v>-0.02415109297953073</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.005749318212097516</v>
+        <v>-0.04662664390177727</v>
       </c>
       <c r="C34">
-        <v>0.02916039734132306</v>
+        <v>0.05340822361016255</v>
       </c>
       <c r="D34">
-        <v>0.03354002515365541</v>
+        <v>-0.005916148146758991</v>
       </c>
       <c r="E34">
-        <v>-0.02006375977590275</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.01154048092122221</v>
+      </c>
+      <c r="F34">
+        <v>0.02242902901784269</v>
+      </c>
+      <c r="G34">
+        <v>-0.02784511672705095</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01127195005176278</v>
+        <v>-0.01163170931552274</v>
       </c>
       <c r="C36">
-        <v>0.01370780770335207</v>
+        <v>0.006018843249282613</v>
       </c>
       <c r="D36">
-        <v>0.00121542796090859</v>
+        <v>0.01103741394879825</v>
       </c>
       <c r="E36">
-        <v>0.004063571567721851</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.0004229321028451305</v>
+      </c>
+      <c r="F36">
+        <v>-0.0004705693276033361</v>
+      </c>
+      <c r="G36">
+        <v>-0.01939770238417141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.006513874706785767</v>
+        <v>-0.03506293647764251</v>
       </c>
       <c r="C38">
-        <v>0.02711408523999074</v>
+        <v>0.02440916961073627</v>
       </c>
       <c r="D38">
-        <v>0.01244483547144133</v>
+        <v>-0.008228992692992383</v>
       </c>
       <c r="E38">
-        <v>-0.01538050785049387</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.003564064815604313</v>
+      </c>
+      <c r="F38">
+        <v>0.001656795153342171</v>
+      </c>
+      <c r="G38">
+        <v>-0.02903339580664093</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.005377095624532373</v>
+        <v>-0.03339918674015498</v>
       </c>
       <c r="C39">
-        <v>0.01539744709926958</v>
+        <v>0.0819689947590954</v>
       </c>
       <c r="D39">
-        <v>0.05141408787553751</v>
+        <v>0.01157255822566175</v>
       </c>
       <c r="E39">
-        <v>-0.04380573165073819</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.01172843355211738</v>
+      </c>
+      <c r="F39">
+        <v>0.03970171174513668</v>
+      </c>
+      <c r="G39">
+        <v>-0.01965491737593753</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01029445972140359</v>
+        <v>-0.02092346261512249</v>
       </c>
       <c r="C40">
-        <v>0.02603320376697984</v>
+        <v>0.03012006481840038</v>
       </c>
       <c r="D40">
-        <v>0.02468663106119447</v>
+        <v>0.01277108221554686</v>
       </c>
       <c r="E40">
-        <v>-0.03205489647902508</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.01656329941555939</v>
+      </c>
+      <c r="F40">
+        <v>0.02174064461116054</v>
+      </c>
+      <c r="G40">
+        <v>-0.02061355668011889</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.004738794253202603</v>
+        <v>-0.01243350675803801</v>
       </c>
       <c r="C41">
-        <v>0.01498786799376267</v>
+        <v>-0.002213648031573912</v>
       </c>
       <c r="D41">
-        <v>-0.007619754195123703</v>
+        <v>0.00335871202028539</v>
       </c>
       <c r="E41">
-        <v>0.006487174155374481</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.002894155265343595</v>
+      </c>
+      <c r="F41">
+        <v>0.0009288679907596846</v>
+      </c>
+      <c r="G41">
+        <v>-0.01361104130484625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.08533975717612029</v>
+        <v>-0.03337996357940656</v>
       </c>
       <c r="C42">
-        <v>0.1117936626168812</v>
+        <v>0.05520710398173791</v>
       </c>
       <c r="D42">
-        <v>0.04761683445235598</v>
+        <v>0.1018175652034967</v>
       </c>
       <c r="E42">
-        <v>-0.2271977270004912</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.05797580230078985</v>
+      </c>
+      <c r="F42">
+        <v>-0.105655639830724</v>
+      </c>
+      <c r="G42">
+        <v>0.2054215043618558</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.005555067745156333</v>
+        <v>-0.02979362899811386</v>
       </c>
       <c r="C43">
-        <v>0.01404350326703717</v>
+        <v>0.006492915817868997</v>
       </c>
       <c r="D43">
-        <v>-0.009300682975286252</v>
+        <v>0.003524744041280612</v>
       </c>
       <c r="E43">
-        <v>0.005895422095542532</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.002888734073690843</v>
+      </c>
+      <c r="F43">
+        <v>-7.191179435310655e-05</v>
+      </c>
+      <c r="G43">
+        <v>-0.01848974497169067</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002438246904305617</v>
+        <v>-0.01681519945011497</v>
       </c>
       <c r="C44">
-        <v>-0.0007542785613861346</v>
+        <v>0.04651945637383272</v>
       </c>
       <c r="D44">
-        <v>0.01605550434736756</v>
+        <v>0.006398417674425882</v>
       </c>
       <c r="E44">
-        <v>0.0001200589447013731</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01878897763787619</v>
+      </c>
+      <c r="F44">
+        <v>0.02733990072784468</v>
+      </c>
+      <c r="G44">
+        <v>-0.03494360464581757</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.009595920880353583</v>
+        <v>-0.00321591314297732</v>
       </c>
       <c r="C46">
-        <v>0.008250695806357141</v>
+        <v>0.01677513803042792</v>
       </c>
       <c r="D46">
-        <v>0.01506400941561751</v>
+        <v>0.01162889571075885</v>
       </c>
       <c r="E46">
-        <v>-0.01024029080049687</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.0006213682238803271</v>
+      </c>
+      <c r="F46">
+        <v>-0.00910686850474356</v>
+      </c>
+      <c r="G46">
+        <v>-0.0251480199881952</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>4.180508559792728e-05</v>
+        <v>-0.07591788589069259</v>
       </c>
       <c r="C47">
-        <v>0.07289007896481114</v>
+        <v>0.06204157947470622</v>
       </c>
       <c r="D47">
-        <v>0.02118369503253756</v>
+        <v>-0.005210787294526349</v>
       </c>
       <c r="E47">
-        <v>-0.02471178183222975</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.01203940523339338</v>
+      </c>
+      <c r="F47">
+        <v>-0.06212681755395973</v>
+      </c>
+      <c r="G47">
+        <v>-0.02338402426727981</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.00230839343460359</v>
+        <v>-0.01945159916722426</v>
       </c>
       <c r="C48">
-        <v>0.02535331272609355</v>
+        <v>0.01000071806548923</v>
       </c>
       <c r="D48">
-        <v>0.004917408657980551</v>
+        <v>0.0008383017228541776</v>
       </c>
       <c r="E48">
-        <v>-0.0002382823734604774</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.002391203128458536</v>
+      </c>
+      <c r="F48">
+        <v>-0.01399132660187077</v>
+      </c>
+      <c r="G48">
+        <v>-0.0256512297264822</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.0008091372853334832</v>
+        <v>-0.0811752514980313</v>
       </c>
       <c r="C50">
-        <v>0.06506186711744399</v>
+        <v>0.06343084914879066</v>
       </c>
       <c r="D50">
-        <v>0.04118771479691442</v>
+        <v>-0.00437038428115184</v>
       </c>
       <c r="E50">
-        <v>-0.007541889889845035</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01335463914282757</v>
+      </c>
+      <c r="F50">
+        <v>-0.05701129040593798</v>
+      </c>
+      <c r="G50">
+        <v>-0.04355048284812432</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.006065479140231848</v>
+        <v>-0.01326208797467959</v>
       </c>
       <c r="C51">
-        <v>-0.001109104288323298</v>
+        <v>0.02622631405385411</v>
       </c>
       <c r="D51">
-        <v>-0.002596018245037275</v>
+        <v>0.008599775030766791</v>
       </c>
       <c r="E51">
-        <v>0.02264984965464473</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.005101453997810462</v>
+      </c>
+      <c r="F51">
+        <v>0.03217611382841747</v>
+      </c>
+      <c r="G51">
+        <v>-0.04691527767242386</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.001898005378859857</v>
+        <v>-0.09768682405067261</v>
       </c>
       <c r="C53">
-        <v>0.102458566899389</v>
+        <v>0.07438900388018879</v>
       </c>
       <c r="D53">
-        <v>0.05947506611084521</v>
+        <v>-0.005956611190476253</v>
       </c>
       <c r="E53">
-        <v>-0.04431442076081877</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03769741689795336</v>
+      </c>
+      <c r="F53">
+        <v>-0.0662431804556302</v>
+      </c>
+      <c r="G53">
+        <v>-0.02592571499937784</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.002479577847087247</v>
+        <v>-0.02916797100118784</v>
       </c>
       <c r="C54">
-        <v>0.02308701408568623</v>
+        <v>0.003854956550911665</v>
       </c>
       <c r="D54">
-        <v>-0.002997489641457597</v>
+        <v>-0.004220812842958869</v>
       </c>
       <c r="E54">
-        <v>0.01380658120905268</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.003664246060470285</v>
+      </c>
+      <c r="F54">
+        <v>-0.001675559592636845</v>
+      </c>
+      <c r="G54">
+        <v>-0.03066340726752549</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-6.28449776523005e-05</v>
+        <v>-0.07436452318055839</v>
       </c>
       <c r="C55">
-        <v>0.07914209783671206</v>
+        <v>0.07031376775262523</v>
       </c>
       <c r="D55">
-        <v>0.05208222204990591</v>
+        <v>-0.004826231828842303</v>
       </c>
       <c r="E55">
-        <v>-0.05228538820455637</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.0255371607133444</v>
+      </c>
+      <c r="F55">
+        <v>-0.06252096024823717</v>
+      </c>
+      <c r="G55">
+        <v>-0.01235216146540508</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.000616718660010033</v>
+        <v>-0.1491785853697477</v>
       </c>
       <c r="C56">
-        <v>0.1492959479920322</v>
+        <v>0.09701508845009957</v>
       </c>
       <c r="D56">
-        <v>0.06627996278175211</v>
+        <v>-0.0146568108990688</v>
       </c>
       <c r="E56">
-        <v>-0.06885917292505668</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.04219540442563178</v>
+      </c>
+      <c r="F56">
+        <v>-0.1036238623189361</v>
+      </c>
+      <c r="G56">
+        <v>-0.003325743870825106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02336752160506128</v>
+        <v>-0.01276402119807187</v>
       </c>
       <c r="C57">
-        <v>0.03540326273124782</v>
+        <v>0.01133856576882915</v>
       </c>
       <c r="D57">
-        <v>0.01369120166927801</v>
+        <v>0.02353377429159357</v>
       </c>
       <c r="E57">
-        <v>-0.023258327852557</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02722586155369026</v>
+      </c>
+      <c r="F57">
+        <v>0.01604489632935799</v>
+      </c>
+      <c r="G57">
+        <v>-0.02171398371816782</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01008904038583865</v>
+        <v>-0.07563956375845272</v>
       </c>
       <c r="C58">
-        <v>0.1027677627389602</v>
+        <v>0.06751387743836147</v>
       </c>
       <c r="D58">
-        <v>-0.08205960389048043</v>
+        <v>0.01913354383703298</v>
       </c>
       <c r="E58">
-        <v>-0.1119481581060085</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9464955818359538</v>
+      </c>
+      <c r="F58">
+        <v>-0.2212305609714474</v>
+      </c>
+      <c r="G58">
+        <v>-0.05593652416018479</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.01849508740451158</v>
+        <v>-0.1464957377246691</v>
       </c>
       <c r="C59">
-        <v>0.1241214179334981</v>
+        <v>-0.2180570363446717</v>
       </c>
       <c r="D59">
-        <v>-0.1835532862796372</v>
+        <v>-0.01720273320959072</v>
       </c>
       <c r="E59">
-        <v>0.12947828412163</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01461534475235463</v>
+      </c>
+      <c r="F59">
+        <v>0.009787405039141788</v>
+      </c>
+      <c r="G59">
+        <v>-0.01748303838321671</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.02724813632214396</v>
+        <v>-0.2950569814571134</v>
       </c>
       <c r="C60">
-        <v>0.1940664183515173</v>
+        <v>0.07719876685540406</v>
       </c>
       <c r="D60">
-        <v>-0.03086180067683236</v>
+        <v>0.007111713056755903</v>
       </c>
       <c r="E60">
-        <v>-0.05342888034517835</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.0152138296680264</v>
+      </c>
+      <c r="F60">
+        <v>0.3843707857814922</v>
+      </c>
+      <c r="G60">
+        <v>0.07774555065364454</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002660506117036514</v>
+        <v>-0.03429783324162891</v>
       </c>
       <c r="C61">
-        <v>0.02815589537155462</v>
+        <v>0.06220932740381309</v>
       </c>
       <c r="D61">
-        <v>0.03763800201259186</v>
+        <v>0.004904007161248538</v>
       </c>
       <c r="E61">
-        <v>-0.03892118719604446</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.007612347827652239</v>
+      </c>
+      <c r="F61">
+        <v>0.02507857414293541</v>
+      </c>
+      <c r="G61">
+        <v>-0.02060486605626841</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007261093257113678</v>
+        <v>-0.01636175072232944</v>
       </c>
       <c r="C63">
-        <v>0.01391302344379644</v>
+        <v>0.02526098755076909</v>
       </c>
       <c r="D63">
-        <v>0.01464611827901915</v>
+        <v>0.007587786991265431</v>
       </c>
       <c r="E63">
-        <v>-0.006725641659717091</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.01079564182533565</v>
+      </c>
+      <c r="F63">
+        <v>-0.01151395922884357</v>
+      </c>
+      <c r="G63">
+        <v>-0.03003377830480995</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.005360719689389584</v>
+        <v>-0.04785567273196144</v>
       </c>
       <c r="C64">
-        <v>0.0438340388194411</v>
+        <v>0.03470645494887401</v>
       </c>
       <c r="D64">
-        <v>0.03046765325265251</v>
+        <v>0.004521975117683551</v>
       </c>
       <c r="E64">
-        <v>-0.03278629452040857</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.00896302952685764</v>
+      </c>
+      <c r="F64">
+        <v>0.0137354626905601</v>
+      </c>
+      <c r="G64">
+        <v>-0.01807751598473063</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01705829226631403</v>
+        <v>-0.08121335085419595</v>
       </c>
       <c r="C65">
-        <v>0.06417906445270254</v>
+        <v>0.0657878932350722</v>
       </c>
       <c r="D65">
-        <v>0.04777887706834386</v>
+        <v>0.01514506389282217</v>
       </c>
       <c r="E65">
-        <v>-0.04004189448736926</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.00391945177276718</v>
+      </c>
+      <c r="F65">
+        <v>0.041386523353345</v>
+      </c>
+      <c r="G65">
+        <v>-0.01055828820210663</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.005023537387284595</v>
+        <v>-0.05519045767557137</v>
       </c>
       <c r="C66">
-        <v>0.03533665822851825</v>
+        <v>0.1138638560321118</v>
       </c>
       <c r="D66">
-        <v>0.05254892971815535</v>
+        <v>0.01088889900739864</v>
       </c>
       <c r="E66">
-        <v>-0.07031603059097365</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.01498838984815033</v>
+      </c>
+      <c r="F66">
+        <v>0.04821590196137667</v>
+      </c>
+      <c r="G66">
+        <v>-0.01086034548363852</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.001920063305582402</v>
+        <v>-0.0594900429312215</v>
       </c>
       <c r="C67">
-        <v>0.04382111501839338</v>
+        <v>0.02725991154676182</v>
       </c>
       <c r="D67">
-        <v>0.008368376876285409</v>
+        <v>-0.006845104492790058</v>
       </c>
       <c r="E67">
-        <v>-0.01546357554008199</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.003632544859049971</v>
+      </c>
+      <c r="F67">
+        <v>0.0001758779273189142</v>
+      </c>
+      <c r="G67">
+        <v>-0.02912758421138232</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.03617403532489526</v>
+        <v>-0.1265318714606297</v>
       </c>
       <c r="C68">
-        <v>0.1105669155993279</v>
+        <v>-0.2733941972461485</v>
       </c>
       <c r="D68">
-        <v>-0.183749993351466</v>
+        <v>0.001141434034985015</v>
       </c>
       <c r="E68">
-        <v>0.1435599284982993</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.01852932384641898</v>
+      </c>
+      <c r="F68">
+        <v>-0.01338958887596566</v>
+      </c>
+      <c r="G68">
+        <v>-0.02012478193694216</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.004070871189482643</v>
+        <v>-0.07832089510092341</v>
       </c>
       <c r="C69">
-        <v>0.05942569801892753</v>
+        <v>0.06158726666758592</v>
       </c>
       <c r="D69">
-        <v>0.02297962778717698</v>
+        <v>-0.009469983940663909</v>
       </c>
       <c r="E69">
-        <v>-0.02417148320431351</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.03033703279045441</v>
+      </c>
+      <c r="F69">
+        <v>-0.04119611870432865</v>
+      </c>
+      <c r="G69">
+        <v>-0.01929624221860239</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.02504157691746651</v>
+        <v>-0.124586257887096</v>
       </c>
       <c r="C71">
-        <v>0.1036462098052761</v>
+        <v>-0.2306733972911105</v>
       </c>
       <c r="D71">
-        <v>-0.1581128686745729</v>
+        <v>-0.007761162072383031</v>
       </c>
       <c r="E71">
-        <v>0.1398423444693528</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.02453826624606427</v>
+      </c>
+      <c r="F71">
+        <v>-0.01781677481913995</v>
+      </c>
+      <c r="G71">
+        <v>-0.03676305724119724</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.002920647145200992</v>
+        <v>-0.08665999793238574</v>
       </c>
       <c r="C72">
-        <v>0.1172823414188681</v>
+        <v>0.07617075328667144</v>
       </c>
       <c r="D72">
-        <v>0.06420189262146858</v>
+        <v>-0.009030005664455918</v>
       </c>
       <c r="E72">
-        <v>-0.09414588105722566</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.01088825255838872</v>
+      </c>
+      <c r="F72">
+        <v>0.03884726147045051</v>
+      </c>
+      <c r="G72">
+        <v>0.00193362862524383</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.03952339869849851</v>
+        <v>-0.4048228959047226</v>
       </c>
       <c r="C73">
-        <v>0.2441704578870247</v>
+        <v>0.09380414614314175</v>
       </c>
       <c r="D73">
-        <v>-0.02644766813623302</v>
+        <v>0.01159300880281114</v>
       </c>
       <c r="E73">
-        <v>-0.1394701168075214</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.06061345392122122</v>
+      </c>
+      <c r="F73">
+        <v>0.5345676322649245</v>
+      </c>
+      <c r="G73">
+        <v>0.1343291408327563</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.001720753349097487</v>
+        <v>-0.1188017779296168</v>
       </c>
       <c r="C74">
-        <v>0.1383083430660792</v>
+        <v>0.1138361087651782</v>
       </c>
       <c r="D74">
-        <v>0.05706063695748088</v>
+        <v>-0.0108043002139029</v>
       </c>
       <c r="E74">
-        <v>-0.07385631472797027</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.03614680597680044</v>
+      </c>
+      <c r="F74">
+        <v>-0.07064398083279379</v>
+      </c>
+      <c r="G74">
+        <v>-0.02092482521300151</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.003152051138428182</v>
+        <v>-0.2653498635051266</v>
       </c>
       <c r="C75">
-        <v>0.281950887105392</v>
+        <v>0.1404119862033645</v>
       </c>
       <c r="D75">
-        <v>0.09713615636347243</v>
+        <v>-0.03221181779380135</v>
       </c>
       <c r="E75">
-        <v>-0.133995023045566</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.07444444901546488</v>
+      </c>
+      <c r="F75">
+        <v>-0.2165402171499565</v>
+      </c>
+      <c r="G75">
+        <v>0.02341542233903212</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.006514646414389705</v>
+        <v>-0.1407903694152171</v>
       </c>
       <c r="C76">
-        <v>0.2398151466751314</v>
+        <v>0.1188335052228223</v>
       </c>
       <c r="D76">
-        <v>0.1094471656526303</v>
+        <v>-0.02211736383035184</v>
       </c>
       <c r="E76">
-        <v>-0.111021150666625</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.06601656920982928</v>
+      </c>
+      <c r="F76">
+        <v>-0.1367881791849997</v>
+      </c>
+      <c r="G76">
+        <v>-0.01045195535946272</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01182516558905689</v>
+        <v>-0.06260311538312044</v>
       </c>
       <c r="C77">
-        <v>0.0383329482594633</v>
+        <v>0.05984434996464291</v>
       </c>
       <c r="D77">
-        <v>0.03825401874009793</v>
+        <v>0.01196281997819348</v>
       </c>
       <c r="E77">
-        <v>-0.03577118418610516</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04111065539668012</v>
+      </c>
+      <c r="F77">
+        <v>0.02127967365414677</v>
+      </c>
+      <c r="G77">
+        <v>-0.04446456944291147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.003645196113877321</v>
+        <v>-0.04132295183911348</v>
       </c>
       <c r="C78">
-        <v>0.03196110613413244</v>
+        <v>0.05002799019287267</v>
       </c>
       <c r="D78">
-        <v>0.03200545657891313</v>
+        <v>0.005240830940219846</v>
       </c>
       <c r="E78">
-        <v>-0.02616997892490729</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.01752022365947218</v>
+      </c>
+      <c r="F78">
+        <v>0.04243589145254497</v>
+      </c>
+      <c r="G78">
+        <v>-0.03224468567405717</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.0159107703093869</v>
+        <v>-0.06017439317480814</v>
       </c>
       <c r="C80">
-        <v>0.2132127085421405</v>
+        <v>0.07067270155715177</v>
       </c>
       <c r="D80">
-        <v>0.6407155250296047</v>
+        <v>0.01358006482109938</v>
       </c>
       <c r="E80">
-        <v>0.6970522243772906</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.06940650851423411</v>
+      </c>
+      <c r="F80">
+        <v>0.04743138188791042</v>
+      </c>
+      <c r="G80">
+        <v>-0.9143175914938182</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.0009155724632618884</v>
+        <v>-0.1493022559338898</v>
       </c>
       <c r="C81">
-        <v>0.1926239960789193</v>
+        <v>0.09161577320353262</v>
       </c>
       <c r="D81">
-        <v>0.07067612398146442</v>
+        <v>-0.01669918054444142</v>
       </c>
       <c r="E81">
-        <v>-0.07929332566098189</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.04556703620396376</v>
+      </c>
+      <c r="F81">
+        <v>-0.1390180096664173</v>
+      </c>
+      <c r="G81">
+        <v>-0.01336800451569202</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.0509723405273747</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.03211595089320835</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.002695410795808542</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.01417480460037933</v>
+      </c>
+      <c r="F82">
+        <v>-0.003160249371161836</v>
+      </c>
+      <c r="G82">
+        <v>0.004437304806755036</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.006379020498139833</v>
+        <v>-0.0289632715360591</v>
       </c>
       <c r="C83">
-        <v>0.03057439278675533</v>
+        <v>0.01900323066651713</v>
       </c>
       <c r="D83">
-        <v>0.002419014315538397</v>
+        <v>0.005153321988194451</v>
       </c>
       <c r="E83">
-        <v>-0.008020212155456537</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02661154763522686</v>
+      </c>
+      <c r="F83">
+        <v>0.02439221084444169</v>
+      </c>
+      <c r="G83">
+        <v>-0.02739918568719134</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.005805305958120207</v>
+        <v>-0.2416166242867862</v>
       </c>
       <c r="C85">
-        <v>0.2449305937190708</v>
+        <v>0.1452719534102444</v>
       </c>
       <c r="D85">
-        <v>0.1061161973375359</v>
+        <v>-0.02082978547928073</v>
       </c>
       <c r="E85">
-        <v>-0.1525812837239907</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.1187949575181914</v>
+      </c>
+      <c r="F85">
+        <v>-0.204148824319456</v>
+      </c>
+      <c r="G85">
+        <v>0.04741958304287014</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.004962257827352691</v>
+        <v>-0.01034860940247606</v>
       </c>
       <c r="C86">
-        <v>-0.00179565255729548</v>
+        <v>0.02356480231302304</v>
       </c>
       <c r="D86">
-        <v>0.008696026638435966</v>
+        <v>0.009528058287283344</v>
       </c>
       <c r="E86">
-        <v>-0.002169441778864183</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.02470298682877434</v>
+      </c>
+      <c r="F86">
+        <v>0.02059371101570552</v>
+      </c>
+      <c r="G86">
+        <v>-0.05604239140900626</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.00622356943958974</v>
+        <v>-0.01614404459880255</v>
       </c>
       <c r="C87">
-        <v>0.01665317488718583</v>
+        <v>0.02707563746605798</v>
       </c>
       <c r="D87">
-        <v>0.02110378437199436</v>
+        <v>0.01123855665495708</v>
       </c>
       <c r="E87">
-        <v>-0.0178559338423262</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.07744983130477971</v>
+      </c>
+      <c r="F87">
+        <v>0.0614800866136844</v>
+      </c>
+      <c r="G87">
+        <v>-0.03909791796148892</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02542676406312264</v>
+        <v>-0.09036779289017054</v>
       </c>
       <c r="C88">
-        <v>0.04966962694607274</v>
+        <v>0.05405482760304558</v>
       </c>
       <c r="D88">
-        <v>0.001574831272690537</v>
+        <v>0.0208954188774056</v>
       </c>
       <c r="E88">
-        <v>-0.0112402026536986</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.007651684886558367</v>
+      </c>
+      <c r="F88">
+        <v>-0.001510315151688137</v>
+      </c>
+      <c r="G88">
+        <v>-0.02347101246500487</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.04777862306988537</v>
+        <v>-0.2119071354782181</v>
       </c>
       <c r="C89">
-        <v>0.2138995983766184</v>
+        <v>-0.3740767132529881</v>
       </c>
       <c r="D89">
-        <v>-0.3229499542291805</v>
+        <v>-0.00938151227947398</v>
       </c>
       <c r="E89">
-        <v>0.2279941973997963</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.01509089615473119</v>
+      </c>
+      <c r="F89">
+        <v>-0.03313852121161166</v>
+      </c>
+      <c r="G89">
+        <v>-0.02822102596190529</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.03527617719040642</v>
+        <v>-0.1778709086494156</v>
       </c>
       <c r="C90">
-        <v>0.1291448618538878</v>
+        <v>-0.3399874259900336</v>
       </c>
       <c r="D90">
-        <v>-0.2643342146194719</v>
+        <v>-0.0121509863167337</v>
       </c>
       <c r="E90">
-        <v>0.1859769793510655</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.004078739622293768</v>
+      </c>
+      <c r="F90">
+        <v>-0.0469527031464893</v>
+      </c>
+      <c r="G90">
+        <v>-0.004980151563499046</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.00244143505041382</v>
+        <v>-0.2139902698367898</v>
       </c>
       <c r="C91">
-        <v>0.2685992501302161</v>
+        <v>0.1314597157387392</v>
       </c>
       <c r="D91">
-        <v>0.1090388974272396</v>
+        <v>-0.02528248540405488</v>
       </c>
       <c r="E91">
-        <v>-0.1514788221504899</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.08287674247598502</v>
+      </c>
+      <c r="F91">
+        <v>-0.1917788887991635</v>
+      </c>
+      <c r="G91">
+        <v>0.006100389928941193</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.001045125047129134</v>
+        <v>-0.2015814373784005</v>
       </c>
       <c r="C92">
-        <v>0.2766751998845446</v>
+        <v>-0.2746383825865415</v>
       </c>
       <c r="D92">
-        <v>-0.2443999014240051</v>
+        <v>-0.05503444793046815</v>
       </c>
       <c r="E92">
-        <v>0.1655418552019087</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.00811629027951094</v>
+      </c>
+      <c r="F92">
+        <v>-0.1320567223517945</v>
+      </c>
+      <c r="G92">
+        <v>-0.0633008835153468</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.03434522681430411</v>
+        <v>-0.2036155561128377</v>
       </c>
       <c r="C93">
-        <v>0.1958554372067836</v>
+        <v>-0.3364199289364521</v>
       </c>
       <c r="D93">
-        <v>-0.3085559991970347</v>
+        <v>-0.01909290086466724</v>
       </c>
       <c r="E93">
-        <v>0.1896935397794675</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.01104369125978713</v>
+      </c>
+      <c r="F93">
+        <v>-0.02032652725186796</v>
+      </c>
+      <c r="G93">
+        <v>-0.00168524726093711</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.01740068936034537</v>
+        <v>-0.2822032909918511</v>
       </c>
       <c r="C94">
-        <v>0.3043388735568064</v>
+        <v>0.1500442638449225</v>
       </c>
       <c r="D94">
-        <v>0.06040894092398769</v>
+        <v>-0.01431543803072698</v>
       </c>
       <c r="E94">
-        <v>-0.1547890897317499</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1046964939535379</v>
+      </c>
+      <c r="F94">
+        <v>-0.3964546322799041</v>
+      </c>
+      <c r="G94">
+        <v>0.1243598058068455</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.006789254399965767</v>
+        <v>-0.08404550835083391</v>
       </c>
       <c r="C95">
-        <v>0.08258546487188492</v>
+        <v>0.07367491108866804</v>
       </c>
       <c r="D95">
-        <v>-0.04761563153622198</v>
+        <v>-0.008062623932586194</v>
       </c>
       <c r="E95">
-        <v>-0.07397347383932583</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.07561982059565166</v>
+      </c>
+      <c r="F95">
+        <v>0.157610702390613</v>
+      </c>
+      <c r="G95">
+        <v>0.07329042389619943</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.001747169249746839</v>
+        <v>-0.212405420850014</v>
       </c>
       <c r="C98">
-        <v>0.1951562657972016</v>
+        <v>0.04231145819472107</v>
       </c>
       <c r="D98">
-        <v>-0.02381251896540515</v>
+        <v>-0.01753159161145899</v>
       </c>
       <c r="E98">
-        <v>-0.0720856626194834</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.06597411712429166</v>
+      </c>
+      <c r="F98">
+        <v>0.2419071218237873</v>
+      </c>
+      <c r="G98">
+        <v>0.03884557503250175</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.007784376600883536</v>
+        <v>-0.0132337550980579</v>
       </c>
       <c r="C101">
-        <v>0.02387241698531378</v>
+        <v>0.01982493356792365</v>
       </c>
       <c r="D101">
-        <v>0.004107991471249476</v>
+        <v>0.008505017386600897</v>
       </c>
       <c r="E101">
-        <v>-0.002521048611564615</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.0367503817326314</v>
+      </c>
+      <c r="F101">
+        <v>-0.02355768088146685</v>
+      </c>
+      <c r="G101">
+        <v>-0.03955838453134274</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01181848372292986</v>
+        <v>-0.127477921628443</v>
       </c>
       <c r="C102">
-        <v>0.1438801745975885</v>
+        <v>0.07942383864405789</v>
       </c>
       <c r="D102">
-        <v>0.04866160296820914</v>
+        <v>-0.00067655705409621</v>
       </c>
       <c r="E102">
-        <v>-0.07116803256912173</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.04305023718897153</v>
+      </c>
+      <c r="F102">
+        <v>-0.06473207735699292</v>
+      </c>
+      <c r="G102">
+        <v>0.01223002660639302</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.001904068199367896</v>
+        <v>-0.00532492399902283</v>
       </c>
       <c r="C103">
-        <v>0.02863592533901506</v>
+        <v>0.005749082727042261</v>
       </c>
       <c r="D103">
-        <v>0.02280205855692492</v>
+        <v>0.000521838248785927</v>
       </c>
       <c r="E103">
-        <v>-0.006735809094830145</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.0004972099341136509</v>
+      </c>
+      <c r="F103">
+        <v>-0.008725669781263639</v>
+      </c>
+      <c r="G103">
+        <v>-0.01463425336226998</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9876107940671529</v>
+        <v>-0.03948666866364286</v>
       </c>
       <c r="C104">
-        <v>-0.07905147249221724</v>
+        <v>-0.04644758348053277</v>
       </c>
       <c r="D104">
-        <v>0.03565947462722029</v>
+        <v>0.9860830294702702</v>
       </c>
       <c r="E104">
-        <v>-0.01523146599243188</v>
+        <v>-0.04281321964916507</v>
+      </c>
+      <c r="F104">
+        <v>-0.03923567096151409</v>
+      </c>
+      <c r="G104">
+        <v>0.00183457444220348</v>
       </c>
     </row>
   </sheetData>
